--- a/excel/input/lab_data.xlsx
+++ b/excel/input/lab_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC22657-0A53-BE4C-9440-6D51DFD03E3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{00DD2B49-E1B6-7B4B-8E77-B917C51523EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{5D6408A1-DF46-8548-8F75-512F23995FCC}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -728,7 +727,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
